--- a/medicine/Enfance/Michel_Strogoff/Michel_Strogoff.xlsx
+++ b/medicine/Enfance/Michel_Strogoff/Michel_Strogoff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Michel Strogoff est un roman d'aventures historique de Jules Verne, paru en 1876.
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Intitulé à l'origine Le Courrier du Tsar, le roman doit son nom au prince Orloff qui, le 23 novembre 1875, conseilla à Pierre-Jules Hetzel et Jules Verne qu'il avait invités chez lui, d'en changer le titre[1].
-L'œuvre paraît d'abord en feuilleton dans la revue le Magasin d'éducation et de récréation du 1er janvier 1876 au 15 décembre 1876, avant d'être publiée en volume la même année chez Hetzel[2]. Pour l'élaboration de ce roman, Jules Verne a reçu des conseils de l'écrivain russe Ivan Tourgueniev, dont Pierre-Jules Hetzel était également l'éditeur[3]. Le livre a été rédigé à peu près à la même période où Hetzel écrivait Maroussia (1878)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Intitulé à l'origine Le Courrier du Tsar, le roman doit son nom au prince Orloff qui, le 23 novembre 1875, conseilla à Pierre-Jules Hetzel et Jules Verne qu'il avait invités chez lui, d'en changer le titre.
+L'œuvre paraît d'abord en feuilleton dans la revue le Magasin d'éducation et de récréation du 1er janvier 1876 au 15 décembre 1876, avant d'être publiée en volume la même année chez Hetzel. Pour l'élaboration de ce roman, Jules Verne a reçu des conseils de l'écrivain russe Ivan Tourgueniev, dont Pierre-Jules Hetzel était également l'éditeur. Le livre a été rédigé à peu près à la même période où Hetzel écrivait Maroussia (1878).
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roman relate le périple de Michel Strogoff, courrier du tsar de Russie Alexandre II, de Moscou à Irkoutsk, capitale de la Sibérie orientale. Sa mission est d'avertir le frère du tsar, resté sans nouvelles de Moscou, de l'arrivée des hordes tartares[5] menées par le traître Ivan Ogareff pour envahir la Sibérie. Sur cette route pleine d'obstacles, il croise la belle Nadia, ainsi que les journalistes européens Harry Blount et Alcide Jolivet. Les voyageurs mettent en général cinq semaines pour aller de Moscou à Irkoutsk. Les courriers du tsar n'ont besoin que d'à peine dix-huit jours pour parcourir cette distance. Michel Strogoff met trois mois, à cause de toutes les épreuves qu'il doit surmonter. Il se fera, entre autres, brûler les yeux et deviendra aveugle… Nadia, sa fidèle amie, le suit tout au long de son aventure. Ils se font passer pour frère et sœur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman relate le périple de Michel Strogoff, courrier du tsar de Russie Alexandre II, de Moscou à Irkoutsk, capitale de la Sibérie orientale. Sa mission est d'avertir le frère du tsar, resté sans nouvelles de Moscou, de l'arrivée des hordes tartares menées par le traître Ivan Ogareff pour envahir la Sibérie. Sur cette route pleine d'obstacles, il croise la belle Nadia, ainsi que les journalistes européens Harry Blount et Alcide Jolivet. Les voyageurs mettent en général cinq semaines pour aller de Moscou à Irkoutsk. Les courriers du tsar n'ont besoin que d'à peine dix-huit jours pour parcourir cette distance. Michel Strogoff met trois mois, à cause de toutes les épreuves qu'il doit surmonter. Il se fera, entre autres, brûler les yeux et deviendra aveugle… Nadia, sa fidèle amie, le suit tout au long de son aventure. Ils se font passer pour frère et sœur.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste de quelques personnages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Michel Strogoff, connu sous le pseudonyme de Nicolas Korpanoff lorsqu'il est en mission, courrier du tsar avec le grade de capitaine
@@ -627,12 +645,87 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Au théâtre
-Jules Verne monta avec Adolphe d'Ennery une version pour la scène représentée en 1880.
-Théâtre musical
-Michel Strogoff (1964), opérette de Jack Ledru.
-Au cinéma
-Films muets :
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jules Verne monta avec Adolphe d'Ennery une version pour la scène représentée en 1880.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre musical</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Strogoff (1964), opérette de Jack Ledru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Films muets :
 1914 : Michael Strogoff, film américain réalisé par Lloyd B. Carleton, avec Jacob P. Adler
 1926 : Michel Strogoff, film franco-allemand réalisé par Victor Tourjansky
 Films parlants :
@@ -641,14 +734,116 @@
 1956 : Michel Strogoff, film franco-italo-yougoslave réalisé par Carmine Gallone, avec Curd Jürgens, Geneviève Page et Sylva Koscina ;
 1961 : Le Triomphe de Michel Strogoff, film franco-italien réalisé par Victor Tourjansky, avec Curd Jürgens, Capucine et Simone Valère ;
 1970 : Michel Strogoff (Der Kurier des Zaren), film franco-italien réalisé par Eriprando Visconti, avec John Philip Law, Hiram Keller, Mimsy Farmer et Delia Boccardo - (affiche réalisée par Yves Thos) ;
-1999 : Michel Strogoff (Michele Strogoff - il corriere dello zar), film italo-allemand réalisé par Fabrizio Costa, avec Paolo Seganti, Lea Bosco, Esther Schweins, Hardy Krüger Jr. et Daniel Ceccaldi
-À la télévision
-1975 : Michel Strogoff, mini-série française réalisée par Jean-Pierre Decourt, avec Raimund Harmstorf, Lorenza Guerrieri, Rada Rassimov et Pierre Vernier
-En dessins animés
-1998 : Michel Strogoff, série télévisée d'animation, réalisée par Bruno René Huchez et Alexandre Huchez.
-2004 : Les Aventures extraordinaires de Michel Strogoff, film d'animation français réalisé par Bruno René Huchez et son fils Alexandre Huchez, avec les voix d'Anthony Delon et Claire Keim
-En bande dessinée
-Walt Disney, Mickey Strogoff, Hachette, 1973 (ASIN B003X78CKW), adaptation en bande dessinée du roman de Jules Verne, avec les personnages de l'univers Disney.
+1999 : Michel Strogoff (Michele Strogoff - il corriere dello zar), film italo-allemand réalisé par Fabrizio Costa, avec Paolo Seganti, Lea Bosco, Esther Schweins, Hardy Krüger Jr. et Daniel Ceccaldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1975 : Michel Strogoff, mini-série française réalisée par Jean-Pierre Decourt, avec Raimund Harmstorf, Lorenza Guerrieri, Rada Rassimov et Pierre Vernier</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En dessins animés</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1998 : Michel Strogoff, série télévisée d'animation, réalisée par Bruno René Huchez et Alexandre Huchez.
+2004 : Les Aventures extraordinaires de Michel Strogoff, film d'animation français réalisé par Bruno René Huchez et son fils Alexandre Huchez, avec les voix d'Anthony Delon et Claire Keim</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Strogoff</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Walt Disney, Mickey Strogoff, Hachette, 1973 (ASIN B003X78CKW), adaptation en bande dessinée du roman de Jules Verne, avec les personnages de l'univers Disney.
 Michel Strogoff, scénario et dessins de Ramón De La Fuente, Nathan, collection « Les œuvres célèbres en BD », 1978  (ISBN 84-2010-535-X).</t>
         </is>
       </c>
